--- a/webroot/files/florexcel/flor_Excel.xlsx
+++ b/webroot/files/florexcel/flor_Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Rodal</t>
   </si>
@@ -68,25 +68,10 @@
     <t>09-04-2018</t>
   </si>
   <si>
-    <t>13-04-2018</t>
+    <t>02-05-2019</t>
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>ETR564</t>
-  </si>
-  <si>
-    <t>Araucaria angustifolia</t>
-  </si>
-  <si>
-    <t>01-02-2018</t>
-  </si>
-  <si>
-    <t>23-01-2019</t>
-  </si>
-  <si>
-    <t>Bifurcado</t>
   </si>
 </sst>
 </file>
@@ -437,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="T1" sqref="T1"/>
@@ -446,7 +431,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -464,7 +449,7 @@
     <col min="17" max="17" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -569,18 +554,6 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
@@ -643,93 +616,6 @@
         <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>72</v>
-      </c>
-      <c r="N5">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>99</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
-        <v>72</v>
-      </c>
-      <c r="N6">
-        <v>20</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>95</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
-      </c>
-      <c r="R6"/>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7">
-        <v>72</v>
-      </c>
-      <c r="N7">
-        <v>21</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>79</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7"/>
-      <c r="S7">
-        <v>6</v>
-      </c>
-      <c r="T7" t="s">
         <v>18</v>
       </c>
     </row>

--- a/webroot/files/florexcel/flor_Excel.xlsx
+++ b/webroot/files/florexcel/flor_Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Rodal</t>
   </si>
@@ -59,19 +59,22 @@
     <t>Calidad</t>
   </si>
   <si>
-    <t>UOP854</t>
-  </si>
-  <si>
-    <t>Pinnus app</t>
-  </si>
-  <si>
-    <t>09-04-2018</t>
-  </si>
-  <si>
-    <t>02-05-2019</t>
+    <t>ESC03XC008</t>
+  </si>
+  <si>
+    <t>Pinus taeda</t>
+  </si>
+  <si>
+    <t>22-06-2003</t>
+  </si>
+  <si>
+    <t>10-08-2019</t>
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Torcido</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="T1" sqref="T1"/>
@@ -430,22 +433,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
-    <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
-    <col min="12" max="12" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -525,29 +528,29 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
       <c r="M2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>1910</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>34.5</v>
       </c>
       <c r="Q2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R2"/>
       <c r="S2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
         <v>18</v>
@@ -558,64 +561,1003 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>1911</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="Q3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="R3"/>
       <c r="S3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>71</v>
-      </c>
       <c r="L4" t="s">
         <v>14</v>
       </c>
       <c r="M4">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>1912</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="Q4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R4"/>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>1913</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>33</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>66</v>
+      </c>
+      <c r="N6">
+        <v>1914</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>30.5</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>66</v>
+      </c>
+      <c r="N7">
+        <v>1915</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>30.5</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>66</v>
+      </c>
+      <c r="N8">
+        <v>1916</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>28.5</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <v>66</v>
+      </c>
+      <c r="N9">
+        <v>1917</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>28</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>66</v>
+      </c>
+      <c r="N10">
+        <v>1918</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <v>34</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>1919</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>42</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>66</v>
+      </c>
+      <c r="N12">
+        <v>1920</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>31</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>1921</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <v>66</v>
+      </c>
+      <c r="N14">
+        <v>1922</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>66</v>
+      </c>
+      <c r="N15">
+        <v>1923</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
+        <v>31</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>66</v>
+      </c>
+      <c r="N16">
+        <v>1924</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>36</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>66</v>
+      </c>
+      <c r="N17">
+        <v>1925</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>39.5</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>67</v>
+      </c>
+      <c r="N18">
+        <v>1926</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>38</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>67</v>
+      </c>
+      <c r="N19">
+        <v>1927</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>67</v>
+      </c>
+      <c r="N20">
+        <v>1928</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>67</v>
+      </c>
+      <c r="N21">
+        <v>1929</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>34.5</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>67</v>
+      </c>
+      <c r="N22">
+        <v>1930</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>41.5</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>67</v>
+      </c>
+      <c r="N23">
+        <v>1931</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>30</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>67</v>
+      </c>
+      <c r="N24">
+        <v>1932</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>42</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24"/>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>67</v>
+      </c>
+      <c r="N25">
+        <v>1933</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>32.5</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25"/>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <v>67</v>
+      </c>
+      <c r="N26">
+        <v>1934</v>
+      </c>
+      <c r="O26">
+        <v>9</v>
+      </c>
+      <c r="P26">
+        <v>28</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26"/>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27">
+        <v>67</v>
+      </c>
+      <c r="N27">
+        <v>1935</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>33</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27"/>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <v>67</v>
+      </c>
+      <c r="N28">
+        <v>1936</v>
+      </c>
+      <c r="O28">
+        <v>11</v>
+      </c>
+      <c r="P28">
         <v>32</v>
       </c>
-      <c r="T4" t="s">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28"/>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <v>67</v>
+      </c>
+      <c r="N29">
+        <v>1937</v>
+      </c>
+      <c r="O29">
+        <v>12</v>
+      </c>
+      <c r="P29">
+        <v>32.5</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29"/>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <v>67</v>
+      </c>
+      <c r="N30">
+        <v>1938</v>
+      </c>
+      <c r="O30">
+        <v>13</v>
+      </c>
+      <c r="P30">
+        <v>32</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>67</v>
+      </c>
+      <c r="N31">
+        <v>1939</v>
+      </c>
+      <c r="O31">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>42</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <v>67</v>
+      </c>
+      <c r="N32">
+        <v>1940</v>
+      </c>
+      <c r="O32">
+        <v>15</v>
+      </c>
+      <c r="P32">
+        <v>32</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32"/>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33">
+        <v>67</v>
+      </c>
+      <c r="N33">
+        <v>1941</v>
+      </c>
+      <c r="O33">
+        <v>16</v>
+      </c>
+      <c r="P33">
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33"/>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>67</v>
+      </c>
+      <c r="N34">
+        <v>1942</v>
+      </c>
+      <c r="O34">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>67</v>
+      </c>
+      <c r="N35">
+        <v>1943</v>
+      </c>
+      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="P35">
+        <v>32.5</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35"/>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>67</v>
+      </c>
+      <c r="N36">
+        <v>1944</v>
+      </c>
+      <c r="O36">
+        <v>19</v>
+      </c>
+      <c r="P36">
+        <v>42</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36"/>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>1945</v>
+      </c>
+      <c r="O37">
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <v>38.5</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37"/>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <v>67</v>
+      </c>
+      <c r="N38">
+        <v>1946</v>
+      </c>
+      <c r="O38">
+        <v>21</v>
+      </c>
+      <c r="P38">
+        <v>32</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38"/>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>67</v>
+      </c>
+      <c r="N39">
+        <v>1947</v>
+      </c>
+      <c r="O39">
+        <v>22</v>
+      </c>
+      <c r="P39">
+        <v>42.5</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39"/>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
         <v>18</v>
       </c>
     </row>
